--- a/Monthly/ACF - PACF/First Difference/Nippon_tel residuals - values.xlsx
+++ b/Monthly/ACF - PACF/First Difference/Nippon_tel residuals - values.xlsx
@@ -407,10 +407,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0003097958358680905</v>
+        <v>-0.03767211092093727</v>
       </c>
       <c r="C3">
-        <v>0.0003127184380932094</v>
+        <v>-0.03802750819377635</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -418,10 +418,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.0146212681328596</v>
+        <v>-0.05730475804369938</v>
       </c>
       <c r="C4">
-        <v>0.01489967214250685</v>
+        <v>-0.0599290314797598</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -429,10 +429,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.05455165867732802</v>
+        <v>0.01301550567119265</v>
       </c>
       <c r="C5">
-        <v>0.05612848082897916</v>
+        <v>0.008802551849475053</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -440,10 +440,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.002910187825793075</v>
+        <v>-0.02242159590201323</v>
       </c>
       <c r="C6">
-        <v>-0.003243791268188786</v>
+        <v>-0.02603686883399776</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -451,10 +451,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.006320695343225144</v>
+        <v>-0.01108947754950801</v>
       </c>
       <c r="C7">
-        <v>0.004973058655515054</v>
+        <v>-0.01234371688061268</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -462,10 +462,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.06586212321189668</v>
+        <v>-0.00103940623736664</v>
       </c>
       <c r="C8">
-        <v>-0.07307641995659646</v>
+        <v>-0.005129207768886867</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -473,10 +473,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.01291715527593302</v>
+        <v>0.000466431884347336</v>
       </c>
       <c r="C9">
-        <v>-0.01378208074816061</v>
+        <v>-0.0006646596823488191</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -484,10 +484,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.1540877824903097</v>
+        <v>-0.06854389582054064</v>
       </c>
       <c r="C10">
-        <v>-0.1666265492841623</v>
+        <v>-0.07528004868579251</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -495,10 +495,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.06945720265509862</v>
+        <v>-0.08132837636316</v>
       </c>
       <c r="C11">
-        <v>-0.07037606809324642</v>
+        <v>-0.09640306391339355</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -506,10 +506,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.06243705917323908</v>
+        <v>-0.01398309062902807</v>
       </c>
       <c r="C12">
-        <v>-0.06890958216653957</v>
+        <v>-0.03348309399673489</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -517,10 +517,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.1445930398119414</v>
+        <v>0.1031042896521176</v>
       </c>
       <c r="C13">
-        <v>0.1887359615125315</v>
+        <v>0.1048090487239188</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -528,10 +528,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-0.01393275264415261</v>
+        <v>-0.01095030707321967</v>
       </c>
       <c r="C14">
-        <v>-0.009179453397241247</v>
+        <v>-0.007423195015912274</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -539,10 +539,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.01120316303693902</v>
+        <v>-0.05665632799296511</v>
       </c>
       <c r="C15">
-        <v>0.02475409135115261</v>
+        <v>-0.06119918099566247</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -550,10 +550,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.02756464390305572</v>
+        <v>0.02427827793695666</v>
       </c>
       <c r="C16">
-        <v>-0.01568659299143097</v>
+        <v>0.01457776727474031</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -561,10 +561,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.05311532271528387</v>
+        <v>0.02745059392746979</v>
       </c>
       <c r="C17">
-        <v>0.05817867701869116</v>
+        <v>0.0331181242717032</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -572,10 +572,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-0.03649840909340852</v>
+        <v>-0.02415189296775223</v>
       </c>
       <c r="C18">
-        <v>-0.1005789674680582</v>
+        <v>-0.02711886459903393</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -583,10 +583,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-0.03098627996647622</v>
+        <v>-0.0152461943350805</v>
       </c>
       <c r="C19">
-        <v>-0.0430884324370233</v>
+        <v>-0.0368554263630446</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -594,10 +594,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-0.0241570883473601</v>
+        <v>0.01180206139805794</v>
       </c>
       <c r="C20">
-        <v>-0.07440883595666634</v>
+        <v>-0.00302186216691468</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -605,10 +605,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-0.123010752968322</v>
+        <v>-0.09675490241998247</v>
       </c>
       <c r="C21">
-        <v>-0.09367731282275807</v>
+        <v>-0.1076146167550733</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -616,10 +616,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-0.004797079004554093</v>
+        <v>0.008976148744306005</v>
       </c>
       <c r="C22">
-        <v>0.01138914495090155</v>
+        <v>0.01911754774365176</v>
       </c>
     </row>
   </sheetData>
